--- a/app/templates/report/edificios.xlsx
+++ b/app/templates/report/edificios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07D0968-F226-47A1-B42C-264DBCB30A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D387CE08-442B-43C4-82A7-49129E64B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Edificios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$X$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Código</t>
   </si>
@@ -103,10 +103,6 @@
 SSID</t>
   </si>
   <si>
-    <t>Booking
-Fee</t>
-  </si>
-  <si>
     <t>Management
 Fee</t>
   </si>
@@ -118,6 +114,14 @@
   </si>
   <si>
     <t>Detalles inglés</t>
+  </si>
+  <si>
+    <t>Booking
+Fee plaza</t>
+  </si>
+  <si>
+    <t>Booking
+Fee piso</t>
   </si>
 </sst>
 </file>
@@ -631,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,18 +652,18 @@
     <col min="9" max="11" width="18.7109375" style="1" customWidth="1"/>
     <col min="12" max="15" width="30.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="50.85546875" style="1" customWidth="1"/>
-    <col min="17" max="18" width="17" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="14.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="24.85546875" style="1"/>
+    <col min="17" max="17" width="17" style="1" customWidth="1"/>
+    <col min="18" max="20" width="16.7109375" style="1" customWidth="1"/>
+    <col min="21" max="25" width="14.7109375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -700,40 +704,43 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -752,16 +759,17 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="4"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:X2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:Y2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/edificios.xlsx
+++ b/app/templates/report/edificios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D387CE08-442B-43C4-82A7-49129E64B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AC24D6-B796-46C3-982F-7B0541E8C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Edificios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$Y$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Código</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Notas</t>
-  </si>
-  <si>
-    <t>Código SAP</t>
   </si>
   <si>
     <t>Puerta
@@ -635,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,17 +650,17 @@
     <col min="12" max="15" width="30.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="50.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="17" style="1" customWidth="1"/>
-    <col min="18" max="20" width="16.7109375" style="1" customWidth="1"/>
-    <col min="21" max="25" width="14.7109375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="24.85546875" style="1"/>
+    <col min="18" max="19" width="16.7109375" style="1" customWidth="1"/>
+    <col min="20" max="24" width="14.7109375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -704,22 +701,22 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>14</v>
@@ -736,11 +733,8 @@
       <c r="X2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -765,11 +759,10 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:Y2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:X2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/edificios.xlsx
+++ b/app/templates/report/edificios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AC24D6-B796-46C3-982F-7B0541E8C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606EB427-8D04-4765-819B-198FFB7C46F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Edificios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$X$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$V$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Código</t>
   </si>
@@ -111,23 +111,12 @@
   </si>
   <si>
     <t>Detalles inglés</t>
-  </si>
-  <si>
-    <t>Booking
-Fee plaza</t>
-  </si>
-  <si>
-    <t>Booking
-Fee piso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -220,7 +209,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -239,9 +228,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -632,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,17 +636,16 @@
     <col min="12" max="15" width="30.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="50.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="17" style="1" customWidth="1"/>
-    <col min="18" max="19" width="16.7109375" style="1" customWidth="1"/>
-    <col min="20" max="24" width="14.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="24.85546875" style="1"/>
+    <col min="18" max="22" width="14.7109375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,28 +698,22 @@
         <v>19</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -752,17 +731,15 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:X2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/edificios.xlsx
+++ b/app/templates/report/edificios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606EB427-8D04-4765-819B-198FFB7C46F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{606EB427-8D04-4765-819B-198FFB7C46F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95EA352E-82F2-4FA7-BB6A-0ACA66DC48CD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,9 +212,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -233,6 +230,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -641,101 +641,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/app/templates/report/edificios.xlsx
+++ b/app/templates/report/edificios.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{606EB427-8D04-4765-819B-198FFB7C46F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95EA352E-82F2-4FA7-BB6A-0ACA66DC48CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961FDC2F-CF3F-4EFE-BEAC-8043C22A9489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edificios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$W$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Código</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Detalles inglés</t>
+  </si>
+  <si>
+    <t>Orden</t>
   </si>
 </sst>
 </file>
@@ -618,34 +621,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="18.7109375" style="1" customWidth="1"/>
-    <col min="12" max="15" width="30.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="50.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17" style="1" customWidth="1"/>
-    <col min="18" max="22" width="14.7109375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="24.85546875" style="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="18.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16" width="30.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="50.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="1" customWidth="1"/>
+    <col min="19" max="23" width="14.6640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="8" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -668,52 +672,55 @@
         <v>6</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -721,25 +728,26 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="3"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:W2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/edificios.xlsx
+++ b/app/templates/report/edificios.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961FDC2F-CF3F-4EFE-BEAC-8043C22A9489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF52C69-1431-4C75-BB67-EDCB97A8971B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edificios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$W$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Código</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Orden</t>
+  </si>
+  <si>
+    <t>Ramp-up a Estabilised</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -236,6 +242,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -325,9 +334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -365,7 +374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -471,7 +480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -613,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,35 +630,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="18.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16" width="30.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="50.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="1" customWidth="1"/>
-    <col min="19" max="23" width="14.6640625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="24.88671875" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="30.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="50.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17" style="1" customWidth="1"/>
+    <col min="20" max="24" width="14.7109375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="8" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,91 +672,97 @@
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="3"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:W2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:X2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/edificios.xlsx
+++ b/app/templates/report/edificios.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF52C69-1431-4C75-BB67-EDCB97A8971B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796CED31-4D2C-45E0-AEC6-A4BF8D398B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edificios" sheetId="1" r:id="rId1"/>
+    <sheet name="Valoraciones" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$X$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$AE$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Valoraciones!$A$2:$AH$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Código</t>
   </si>
@@ -120,12 +122,42 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Pre-capex indefinidos</t>
+  </si>
+  <si>
+    <t>Pre-capex vacío</t>
+  </si>
+  <si>
+    <t>Post-capex</t>
+  </si>
+  <si>
+    <t>ECO
+Tasación</t>
+  </si>
+  <si>
+    <t>ECO
+Act. Rentas</t>
+  </si>
+  <si>
+    <t>ECO
+Refinanc.</t>
+  </si>
+  <si>
+    <t>RICS</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -193,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -212,13 +244,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -244,6 +305,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -630,7 +709,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="14" max="20" width="14.7109375" style="1" customWidth="1"/>
+    <col min="21" max="24" width="30.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="50.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17" style="1" customWidth="1"/>
+    <col min="27" max="31" width="14.7109375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="24.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+    </row>
+    <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A2:AE2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606B012B-BD94-428F-9F2C-E55293AD0B0D}">
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,19 +894,25 @@
     <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="33.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="18.7109375" style="1" customWidth="1"/>
-    <col min="14" max="17" width="30.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="50.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17" style="1" customWidth="1"/>
-    <col min="20" max="24" width="14.7109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="24.85546875" style="1"/>
+    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="14.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" customWidth="1"/>
+    <col min="24" max="27" width="30.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="50.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17" style="1" customWidth="1"/>
+    <col min="30" max="34" width="14.7109375" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -698,41 +952,71 @@
       <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -747,22 +1031,38 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="14"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:X2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AH2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/edificios.xlsx
+++ b/app/templates/report/edificios.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796CED31-4D2C-45E0-AEC6-A4BF8D398B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB253ED-9E4F-44C4-A828-AAB36A31193D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edificios" sheetId="1" r:id="rId1"/>
     <sheet name="Valoraciones" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$AE$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Valoraciones!$A$2:$AH$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Edificios!$A$2:$AH$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Valoraciones!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Código</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>Histórico de valoraciones</t>
   </si>
 </sst>
 </file>
@@ -310,20 +313,20 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -709,175 +712,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="18.7109375" style="1" customWidth="1"/>
-    <col min="14" max="20" width="14.7109375" style="1" customWidth="1"/>
-    <col min="21" max="24" width="30.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="50.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17" style="1" customWidth="1"/>
-    <col min="27" max="31" width="14.7109375" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="24.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-    </row>
-    <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <autoFilter ref="A2:AE2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606B012B-BD94-428F-9F2C-E55293AD0B0D}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -885,7 +719,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -952,7 +786,7 @@
       <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -964,7 +798,7 @@
       <c r="Q2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="9" t="s">
@@ -976,13 +810,13 @@
       <c r="U2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="Y2" s="9" t="s">
@@ -1031,24 +865,24 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="16" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="16" t="s">
+      <c r="U3" s="13"/>
+      <c r="V3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="15"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="16"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -1066,4 +900,73 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606B012B-BD94-428F-9F2C-E55293AD0B0D}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="24.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/app/templates/report/edificios.xlsx
+++ b/app/templates/report/edificios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB253ED-9E4F-44C4-A828-AAB36A31193D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349ED0AB-F1A3-483F-B566-1123359652C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,9 +307,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -327,6 +324,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -712,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,10 +721,11 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="33.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="18.7109375" style="1" customWidth="1"/>
@@ -786,7 +787,7 @@
       <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -798,7 +799,7 @@
       <c r="Q2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="9" t="s">
@@ -810,13 +811,13 @@
       <c r="U2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Y2" s="9" t="s">
@@ -855,7 +856,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
@@ -865,24 +866,24 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14" t="s">
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="14" t="s">
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="16"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="15"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -894,7 +895,6 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A2:AH2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -925,7 +925,7 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -952,16 +952,16 @@
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/app/templates/report/edificios.xlsx
+++ b/app/templates/report/edificios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349ED0AB-F1A3-483F-B566-1123359652C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160D4E18-4B75-47A6-8379-98E73697A9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,6 +188,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -334,7 +335,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -897,6 +913,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:AH2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="R3:U99999">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>EDATE($R3,6)&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/edificios.xlsx
+++ b/app/templates/report/edificios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160D4E18-4B75-47A6-8379-98E73697A9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79439DD0-F592-4009-B962-92495D31CA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edificios" sheetId="1" r:id="rId1"/>
@@ -335,14 +335,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -732,38 +725,38 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="18.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="14.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" customWidth="1"/>
-    <col min="24" max="27" width="30.85546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="50.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="18.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="1" customWidth="1"/>
+    <col min="15" max="17" width="15.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="1" customWidth="1"/>
+    <col min="19" max="21" width="15.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.77734375" style="1" customWidth="1"/>
+    <col min="24" max="27" width="30.88671875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="50.88671875" style="1" customWidth="1"/>
     <col min="29" max="29" width="17" style="1" customWidth="1"/>
-    <col min="30" max="34" width="14.7109375" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="24.85546875" style="1"/>
+    <col min="30" max="34" width="14.6640625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="8" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -867,7 +860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -914,7 +907,7 @@
   </sheetData>
   <autoFilter ref="A2:AH2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="R3:U99999">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>EDATE($R3,6)&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -929,20 +922,20 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="24.85546875" style="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -971,7 +964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="13" t="s">
         <v>25</v>
